--- a/templates/dataplant/MIAPE/MIAPE_-_Mass_spectrometry_data.xlsx
+++ b/templates/dataplant/MIAPE/MIAPE_-_Mass_spectrometry_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF6538B-A50B-412F-B34F-CA29C4120622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE2724-0016-4CD4-A932-FC49AE8D7FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Mass Spectrometry</t>
   </si>
   <si>
-    <t>proteomics</t>
-  </si>
-  <si>
     <t>Data Acquisition</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>https://bioregistry.io/NCIT:C17156</t>
   </si>
   <si>
-    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1003348</t>
-  </si>
-  <si>
     <t>https://bioregistry.io/NCIT:C142469</t>
   </si>
   <si>
@@ -102,18 +96,12 @@
     <t>NCIT</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>Comment[description]</t>
   </si>
   <si>
     <t>"An analytical technique wherein ions are separated according to their ratio of charge to mass. From the mass spectrum produced, the atomic weight of the particle can be deduced." []</t>
   </si>
   <si>
-    <t>"large-scale study of proteins and proteomes." [PSI:MS]</t>
-  </si>
-  <si>
     <t>"Information input into a systematic, automated format from another device or automated source." []</t>
   </si>
   <si>
@@ -256,6 +244,12 @@
   </si>
   <si>
     <t>MIAPE - Mass spectrometry data</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
   </si>
 </sst>
 </file>
@@ -664,7 +658,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -758,138 +752,135 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -908,138 +899,138 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/MIAPE/MIAPE_-_Mass_spectrometry_data.xlsx
+++ b/templates/dataplant/MIAPE/MIAPE_-_Mass_spectrometry_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE2724-0016-4CD4-A932-FC49AE8D7FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB754E4-4247-4057-9817-8FC8A29547EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Template to describe data acquisition and analysis of mass spectrometry based on the minimum information about a proteomics experiment (MIAPE) standard for mass spectrometry (MIAPE-MS).</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>Template to describe data acquisition and analysis of mass spectrometry based on the Minimum Information About a Proteomics Experiment (MIAPE) standard for mass spectrometry (MIAPE-MS).</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,190 +697,190 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -899,138 +899,138 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>67</v>
-      </c>
-      <c r="V1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
